--- a/excel-parser/pg150-ultrascale-memory.xlsx
+++ b/excel-parser/pg150-ultrascale-memory.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -46,6 +47,9 @@
     <t xml:space="preserve">0x04</t>
   </si>
   <si>
+    <t xml:space="preserve">ECC Enable Interrupt Register</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECC_ON_OFF</t>
   </si>
   <si>
@@ -58,18 +62,24 @@
     <t xml:space="preserve">0x0C</t>
   </si>
   <si>
+    <t xml:space="preserve">Correctable Error Count Register</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESERVED_01</t>
   </si>
   <si>
     <t xml:space="preserve">0x10</t>
   </si>
   <si>
-    <t xml:space="preserve">CE_FFD_31_</t>
+    <t xml:space="preserve">CE_FFD_31</t>
   </si>
   <si>
     <t xml:space="preserve">0x100</t>
   </si>
   <si>
+    <t xml:space="preserve">Correctable Error First Failing Data Register</t>
+  </si>
+  <si>
     <t xml:space="preserve">CE_FFD_63</t>
   </si>
   <si>
@@ -98,6 +108,105 @@
   </si>
   <si>
     <t xml:space="preserve">0x180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correctable Error First Failing ECC Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFD_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFD_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFD_95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFD_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERVED_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERVED_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFA_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE_FFA_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERVED_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_D_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_D_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_D_95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_D_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x30C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERVED_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_ECC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x380</t>
   </si>
 </sst>
 </file>
@@ -107,11 +216,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,6 +237,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,9 +287,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -193,18 +321,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:C15"/>
+  <dimension ref="A3:C41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.8928571428571"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,88 +352,245 @@
       <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -318,4 +602,211 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A9:C37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3928571428571"/>
+  </cols>
+  <sheetData>
+    <row r="9" customFormat="false" ht="49.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="49.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="49.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="49.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>